--- a/doc/数据库/数据库文档.xlsx
+++ b/doc/数据库/数据库文档.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>user</t>
   </si>
@@ -46,6 +46,9 @@
     <t>idarea</t>
   </si>
   <si>
+    <t>idgrade</t>
+  </si>
+  <si>
     <t>（主键）</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>地区主键</t>
+  </si>
+  <si>
+    <t>班级主键</t>
   </si>
   <si>
     <t>Company</t>
@@ -171,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -193,17 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,10 +216,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,7 +239,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,57 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -313,14 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,9 +329,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,55 +364,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,121 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,13 +576,22 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -632,19 +647,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -678,6 +680,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,30 +739,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -746,21 +763,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,16 +783,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,140 +801,146 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,20 +956,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,12 +1029,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1276,33 +1285,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -1311,10 +1322,11 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1322,405 +1334,412 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="9:12">
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="11:11">
-      <c r="K16" s="14"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="12"/>
+      <c r="B35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A7:E8"/>
     <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A1:H2"/>
     <mergeCell ref="A17:C18"/>
     <mergeCell ref="A22:C23"/>
     <mergeCell ref="A27:C28"/>
     <mergeCell ref="A33:C34"/>
     <mergeCell ref="A39:E40"/>
+    <mergeCell ref="A7:F8"/>
+    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
